--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Jam3-Jam2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Jam3-Jam2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.379101</v>
+        <v>17.43094266666667</v>
       </c>
       <c r="H2">
-        <v>25.137303</v>
+        <v>52.292828</v>
       </c>
       <c r="I2">
-        <v>0.2232365200207407</v>
+        <v>0.3741631566231533</v>
       </c>
       <c r="J2">
-        <v>0.2232365200207407</v>
+        <v>0.3741631566231532</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.24999533333333</v>
+        <v>121.7032956666666</v>
       </c>
       <c r="N2">
-        <v>99.74998599999999</v>
+        <v>365.109887</v>
       </c>
       <c r="O2">
-        <v>0.5673360890306117</v>
+        <v>0.8275728186333362</v>
       </c>
       <c r="P2">
-        <v>0.5673360890306117</v>
+        <v>0.8275728186333362</v>
       </c>
       <c r="Q2">
-        <v>278.6050691475286</v>
+        <v>2121.403169110048</v>
       </c>
       <c r="R2">
-        <v>2507.445622327758</v>
+        <v>19092.62852199043</v>
       </c>
       <c r="S2">
-        <v>0.1266501341973709</v>
+        <v>0.3096472581553694</v>
       </c>
       <c r="T2">
-        <v>0.1266501341973709</v>
+        <v>0.3096472581553694</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.379101</v>
+        <v>17.43094266666667</v>
       </c>
       <c r="H3">
-        <v>25.137303</v>
+        <v>52.292828</v>
       </c>
       <c r="I3">
-        <v>0.2232365200207407</v>
+        <v>0.3741631566231533</v>
       </c>
       <c r="J3">
-        <v>0.2232365200207407</v>
+        <v>0.3741631566231532</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>69.907319</v>
       </c>
       <c r="O3">
-        <v>0.3976035140102714</v>
+        <v>0.1584547531793621</v>
       </c>
       <c r="P3">
-        <v>0.3976035140102714</v>
+        <v>0.1584547531793621</v>
       </c>
       <c r="Q3">
-        <v>195.2534955134064</v>
+        <v>406.1834898231258</v>
       </c>
       <c r="R3">
-        <v>1757.281459620657</v>
+        <v>3655.651408408132</v>
       </c>
       <c r="S3">
-        <v>0.0887596248156708</v>
+        <v>0.05928793063153277</v>
       </c>
       <c r="T3">
-        <v>0.08875962481567079</v>
+        <v>0.05928793063153275</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.379101</v>
+        <v>17.43094266666667</v>
       </c>
       <c r="H4">
-        <v>25.137303</v>
+        <v>52.292828</v>
       </c>
       <c r="I4">
-        <v>0.2232365200207407</v>
+        <v>0.3741631566231533</v>
       </c>
       <c r="J4">
-        <v>0.2232365200207407</v>
+        <v>0.3741631566231532</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>6.164378</v>
       </c>
       <c r="O4">
-        <v>0.03506039695911681</v>
+        <v>0.01397242818730167</v>
       </c>
       <c r="P4">
-        <v>0.03506039695911681</v>
+        <v>0.01397242818730167</v>
       </c>
       <c r="Q4">
-        <v>17.21731528805934</v>
+        <v>35.81697316455378</v>
       </c>
       <c r="R4">
-        <v>154.955837592534</v>
+        <v>322.352758480984</v>
       </c>
       <c r="S4">
-        <v>0.007826761007698996</v>
+        <v>0.005227967836251119</v>
       </c>
       <c r="T4">
-        <v>0.007826761007698994</v>
+        <v>0.005227967836251117</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>28.050535</v>
       </c>
       <c r="I5">
-        <v>0.2491080215773342</v>
+        <v>0.2007058543586177</v>
       </c>
       <c r="J5">
-        <v>0.2491080215773342</v>
+        <v>0.2007058543586177</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.24999533333333</v>
+        <v>121.7032956666666</v>
       </c>
       <c r="N5">
-        <v>99.74998599999999</v>
+        <v>365.109887</v>
       </c>
       <c r="O5">
-        <v>0.5673360890306117</v>
+        <v>0.8275728186333362</v>
       </c>
       <c r="P5">
-        <v>0.5673360890306117</v>
+        <v>0.8275728186333362</v>
       </c>
       <c r="Q5">
-        <v>310.8933859491678</v>
+        <v>1137.947518237727</v>
       </c>
       <c r="R5">
-        <v>2798.04047354251</v>
+        <v>10241.52766413954</v>
       </c>
       <c r="S5">
-        <v>0.141327970707838</v>
+        <v>0.1660987096077731</v>
       </c>
       <c r="T5">
-        <v>0.141327970707838</v>
+        <v>0.1660987096077731</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>28.050535</v>
       </c>
       <c r="I6">
-        <v>0.2491080215773342</v>
+        <v>0.2007058543586177</v>
       </c>
       <c r="J6">
-        <v>0.2491080215773342</v>
+        <v>0.2007058543586177</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>69.907319</v>
       </c>
       <c r="O6">
-        <v>0.3976035140102714</v>
+        <v>0.1584547531793621</v>
       </c>
       <c r="P6">
-        <v>0.3976035140102714</v>
+        <v>0.1584547531793621</v>
       </c>
       <c r="Q6">
         <v>217.8819664850739</v>
@@ -818,10 +818,10 @@
         <v>1960.937698365665</v>
       </c>
       <c r="S6">
-        <v>0.0990462247472946</v>
+        <v>0.03180279661404776</v>
       </c>
       <c r="T6">
-        <v>0.09904622474729458</v>
+        <v>0.03180279661404775</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>28.050535</v>
       </c>
       <c r="I7">
-        <v>0.2491080215773342</v>
+        <v>0.2007058543586177</v>
       </c>
       <c r="J7">
-        <v>0.2491080215773342</v>
+        <v>0.2007058543586177</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>6.164378</v>
       </c>
       <c r="O7">
-        <v>0.03506039695911681</v>
+        <v>0.01397242818730167</v>
       </c>
       <c r="P7">
-        <v>0.03506039695911681</v>
+        <v>0.01397242818730167</v>
       </c>
       <c r="Q7">
         <v>19.21267787135889</v>
@@ -880,10 +880,10 @@
         <v>172.91410084223</v>
       </c>
       <c r="S7">
-        <v>0.008733826122201574</v>
+        <v>0.002804348136796814</v>
       </c>
       <c r="T7">
-        <v>0.00873382612220157</v>
+        <v>0.002804348136796813</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>59.416063</v>
       </c>
       <c r="I8">
-        <v>0.5276554584019252</v>
+        <v>0.4251309890182291</v>
       </c>
       <c r="J8">
-        <v>0.5276554584019252</v>
+        <v>0.425130989018229</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.24999533333333</v>
+        <v>121.7032956666666</v>
       </c>
       <c r="N8">
-        <v>99.74998599999999</v>
+        <v>365.109887</v>
       </c>
       <c r="O8">
-        <v>0.5673360890306117</v>
+        <v>0.8275728186333362</v>
       </c>
       <c r="P8">
-        <v>0.5673360890306117</v>
+        <v>0.8275728186333362</v>
       </c>
       <c r="Q8">
-        <v>658.5279391583464</v>
+        <v>2410.376894212764</v>
       </c>
       <c r="R8">
-        <v>5926.751452425117</v>
+        <v>21693.39204791488</v>
       </c>
       <c r="S8">
-        <v>0.2993579841254029</v>
+        <v>0.3518268508701938</v>
       </c>
       <c r="T8">
-        <v>0.2993579841254029</v>
+        <v>0.3518268508701937</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>59.416063</v>
       </c>
       <c r="I9">
-        <v>0.5276554584019252</v>
+        <v>0.4251309890182291</v>
       </c>
       <c r="J9">
-        <v>0.5276554584019252</v>
+        <v>0.425130989018229</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>69.907319</v>
       </c>
       <c r="O9">
-        <v>0.3976035140102714</v>
+        <v>0.1584547531793621</v>
       </c>
       <c r="P9">
-        <v>0.3976035140102714</v>
+        <v>0.1584547531793621</v>
       </c>
       <c r="Q9">
         <v>461.5130744294553</v>
@@ -1004,10 +1004,10 @@
         <v>4153.617669865097</v>
       </c>
       <c r="S9">
-        <v>0.209797664447306</v>
+        <v>0.0673640259337816</v>
       </c>
       <c r="T9">
-        <v>0.209797664447306</v>
+        <v>0.06736402593378157</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>59.416063</v>
       </c>
       <c r="I10">
-        <v>0.5276554584019252</v>
+        <v>0.4251309890182291</v>
       </c>
       <c r="J10">
-        <v>0.5276554584019252</v>
+        <v>0.425130989018229</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>6.164378</v>
       </c>
       <c r="O10">
-        <v>0.03506039695911681</v>
+        <v>0.01397242818730167</v>
       </c>
       <c r="P10">
-        <v>0.03506039695911681</v>
+        <v>0.01397242818730167</v>
       </c>
       <c r="Q10">
         <v>40.69589684486822</v>
@@ -1066,10 +1066,10 @@
         <v>366.263071603814</v>
       </c>
       <c r="S10">
-        <v>0.01849980982921625</v>
+        <v>0.005940112214253743</v>
       </c>
       <c r="T10">
-        <v>0.01849980982921624</v>
+        <v>0.005940112214253741</v>
       </c>
     </row>
   </sheetData>
